--- a/biology/Mycologie/Xanthoconium/Xanthoconium.xlsx
+++ b/biology/Mycologie/Xanthoconium/Xanthoconium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xanthoconium est un genre de champignons de la famille des Boletaceae. Ce genre a une distribution cosmopolite[1].
-Le concept de Xanthoconium n'est pas encore confirmé par la phylogénétique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xanthoconium est un genre de champignons de la famille des Boletaceae. Ce genre a une distribution cosmopolite.
+Le concept de Xanthoconium n'est pas encore confirmé par la phylogénétique.
 La morphologie de l'hyménophore (chapeau) ressemble au genre Boletus ainsi que le stipe réticulé, mais il présente plutôt le stipe allongé du genre Leccinum.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 février 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 février 2023) :
 Xanthoconium affine (Peck) Singer, 1944 - Ohio
 Xanthoconium chattoogaense Wolfe, 1987
 Xanthoconium fusciceps N.K. Zeng, Zhi Q. Liang &amp; S. Jiang, 2017
